--- a/medicine/Sexualité et sexologie/Bonding/Bonding.xlsx
+++ b/medicine/Sexualité et sexologie/Bonding/Bonding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bonding (stylisé BONDiNG) ou Des liens bien serrés au Québec est une série télévisée américaine en quinze épisodes d'environ 17 minutes créée par Rightor Doyle et diffusée du 24 avril 2019[1] au 27 janvier 2021 sur Netflix[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonding (stylisé BONDiNG) ou Des liens bien serrés au Québec est une série télévisée américaine en quinze épisodes d'environ 17 minutes créée par Rightor Doyle et diffusée du 24 avril 2019 au 27 janvier 2021 sur Netflix.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tiff et Pete, deux anciens amis du lycée, se rendent compte qu’ils ne se connaissent plus vraiment quand ils se rencontrent à nouveau à New York après plusieurs années passées sans se voir. Aujourd’hui Tiff a un secret : elle est devenue l’une des maîtresses dominatrices les plus en vogue de New York. Sachant que Pete, un éternel apprenti comédien et humoriste toujours en galère, a besoin d’argent, Tiff lui fait une offre qu’il ne pourra refuser : celle de devenir son assistant[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiff et Pete, deux anciens amis du lycée, se rendent compte qu’ils ne se connaissent plus vraiment quand ils se rencontrent à nouveau à New York après plusieurs années passées sans se voir. Aujourd’hui Tiff a un secret : elle est devenue l’une des maîtresses dominatrices les plus en vogue de New York. Sachant que Pete, un éternel apprenti comédien et humoriste toujours en galère, a besoin d’argent, Tiff lui fait une offre qu’il ne pourra refuser : celle de devenir son assistant.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoe Levin (VF : Joséphine Ropion): Tiff
 Brendan Scannell (VF : Benjamin Bollen) : Pete
@@ -558,7 +574,7 @@
 Gabrielle Ryan (VF : Vanessa Van-Geneugden) : Portia
 Alysha Umphres (VF : Daria Levannier) : Murphy
 Eric Berryman (VF : Mohad Sanou) : Andrew
- Source et légende : version française (VF) sur RS Doublage[4]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
@@ -589,11 +605,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Développement
-Le 16 janvier 2020, la série est renouvelée pour une deuxième saison[5].
-Le 2 juillet 2021, Netflix annonce que la série est annulée[6].
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 16 janvier 2020, la série est renouvelée pour une deuxième saison.
+Le 2 juillet 2021, Netflix annonce que la série est annulée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bonding</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bonding</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titres original et français : Bonding
 Titre québécois : Des liens bien serrés
 Création : Rightor Doyle
@@ -614,36 +670,76 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bonding</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bonding</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (2019)
-Tous les épisodes ont été scénarisés et réalisés par Rightor Doyle, et mis en ligne le 24 avril 2019.
-Deuxième saison (2021)
-Initialement prévue pour 2020, elle a été mise en ligne le 27 janvier 2021 sur la plateforme. Tous les épisodes ont été scénarisés et réalisés par Rightor Doyle, Olivia Troy et Nana Mensah.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première saison (2019)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les épisodes ont été scénarisés et réalisés par Rightor Doyle, et mis en ligne le 24 avril 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bonding</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bonding</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement prévue pour 2020, elle a été mise en ligne le 27 janvier 2021 sur la plateforme. Tous les épisodes ont été scénarisés et réalisés par Rightor Doyle, Olivia Troy et Nana Mensah.
 </t>
         </is>
       </c>
